--- a/Bilag - diverse/Tidsplan 1.0.xlsx
+++ b/Bilag - diverse/Tidsplan 1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TIDSPLAN - ULTRALYDS ROBOTARM GRUPPEN</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Sortering og gennemlæsning af litteratur</t>
   </si>
   <si>
-    <t>Skriv Organisation, Økonomi, Borger og Patient</t>
-  </si>
-  <si>
     <t>Analyse af interview</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>27/5</t>
-  </si>
-  <si>
-    <t>Øvrig rapport udarbejdelse</t>
   </si>
   <si>
     <r>
@@ -154,11 +148,58 @@
   <si>
     <t>15/4</t>
   </si>
+  <si>
+    <t>Mail til afdeling på Viborg sygehus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deadline:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Interview afholdt med Viborg</t>
+    </r>
+  </si>
+  <si>
+    <t>29/4</t>
+  </si>
+  <si>
+    <t>Indledning, baggrund, projektafgrænsning</t>
+  </si>
+  <si>
+    <t>Strukturering af bilag</t>
+  </si>
+  <si>
+    <t>Metode</t>
+  </si>
+  <si>
+    <t>Kontakt til Søren Pallesen, inkl. opstartsmøde</t>
+  </si>
+  <si>
+    <t>Organisation, Økonomi, Borger og Patient</t>
+  </si>
+  <si>
+    <t>Konklusion, perspektivering</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +518,10 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,11 +543,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,6 +642,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -642,6 +694,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -794,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,53 +879,53 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="23">
         <v>2015</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -916,7 +985,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="10"/>
@@ -960,19 +1029,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -982,21 +1051,21 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1004,21 +1073,21 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1026,21 +1095,21 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1048,7 +1117,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
@@ -1056,13 +1125,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1072,7 +1139,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
@@ -1083,8 +1150,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1094,7 +1161,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
@@ -1105,11 +1172,13 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="29"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
@@ -1128,17 +1197,17 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="29"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -1150,41 +1219,41 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
@@ -1196,36 +1265,170 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="20" t="s">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
